--- a/data/input_data.xlsx
+++ b/data/input_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6 sem\КУрсач\Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F902314-E0FA-4A16-9515-F7FD9BEC77A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306CE175-11F1-4503-8EF0-EF22B7093518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -339,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,4 +404,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD0B77-F3FE-4D16-B4A7-ACEC88D7D40A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>